--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1214"/>
+  <dimension ref="A1:I1215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44132,6 +44132,43 @@
         <v>228900</v>
       </c>
     </row>
+    <row r="1215">
+      <c r="A1215" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1215" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1215" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1215" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1215" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F1215" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G1215" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H1215" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I1215" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44169,6 +44169,43 @@
         </is>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I1216" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44206,6 +44206,43 @@
         </is>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I1217" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44243,6 +44243,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44278,6 +44278,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>320000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44313,6 +44313,43 @@
         <v>320000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44350,6 +44350,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44387,6 +44387,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>7500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44422,6 +44422,43 @@
         <v>7500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44459,6 +44459,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44496,6 +44496,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>2075</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44531,6 +44531,43 @@
         <v>2075</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I1226" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44568,6 +44568,78 @@
         </is>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>16400</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="I1228" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44640,6 +44640,76 @@
         </is>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>4000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1230"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44710,6 +44710,41 @@
         <v>4000</v>
       </c>
     </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44745,6 +44745,41 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>2000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44780,6 +44780,43 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="I1233" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44817,6 +44817,41 @@
         </is>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44852,6 +44852,76 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>6000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44922,6 +44922,41 @@
         <v>6000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>5000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44957,6 +44957,41 @@
         <v>5000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>2</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>9000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2383"/>
+  <dimension ref="A1:I2384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85067,6 +85067,41 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="2384">
+      <c r="A2384" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2384" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2384" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D2384" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E2384" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F2384" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="G2384" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H2384" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="I2384" t="n">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2384"/>
+  <dimension ref="A1:I2385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85102,6 +85102,41 @@
         <v>3000</v>
       </c>
     </row>
+    <row r="2385">
+      <c r="A2385" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2385" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2385" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D2385" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E2385" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F2385" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G2385" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H2385" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I2385" t="n">
+        <v>17200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2385"/>
+  <dimension ref="A1:I2386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85137,6 +85137,43 @@
         <v>17200</v>
       </c>
     </row>
+    <row r="2386">
+      <c r="A2386" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2386" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2386" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D2386" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E2386" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F2386" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G2386" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H2386" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I2386" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2386"/>
+  <dimension ref="A1:I2387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85174,6 +85174,41 @@
         </is>
       </c>
     </row>
+    <row r="2387">
+      <c r="A2387" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2387" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2387" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D2387" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E2387" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="F2387" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="G2387" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H2387" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="I2387" t="n">
+        <v>13500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2387"/>
+  <dimension ref="A1:I2388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85209,6 +85209,41 @@
         <v>13500</v>
       </c>
     </row>
+    <row r="2388">
+      <c r="A2388" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2388" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2388" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D2388" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E2388" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="F2388" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G2388" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H2388" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I2388" t="n">
+        <v>11500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2388"/>
+  <dimension ref="A1:I2389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85244,6 +85244,43 @@
         <v>11500</v>
       </c>
     </row>
+    <row r="2389">
+      <c r="A2389" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2389" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2389" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D2389" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E2389" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F2389" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G2389" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H2389" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I2389" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2389"/>
+  <dimension ref="A1:I2390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85281,6 +85281,43 @@
         </is>
       </c>
     </row>
+    <row r="2390">
+      <c r="A2390" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2390" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2390" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D2390" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E2390" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F2390" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G2390" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H2390" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I2390" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2390"/>
+  <dimension ref="A1:I2391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85318,6 +85318,43 @@
         </is>
       </c>
     </row>
+    <row r="2391">
+      <c r="A2391" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2391" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2391" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D2391" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E2391" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F2391" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G2391" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H2391" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I2391" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2391"/>
+  <dimension ref="A1:I2392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85355,6 +85355,43 @@
         </is>
       </c>
     </row>
+    <row r="2392">
+      <c r="A2392" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2392" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2392" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D2392" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E2392" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="F2392" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G2392" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H2392" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="I2392" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2392"/>
+  <dimension ref="A1:I2393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85392,6 +85392,41 @@
         </is>
       </c>
     </row>
+    <row r="2393">
+      <c r="A2393" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2393" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2393" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D2393" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E2393" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F2393" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G2393" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H2393" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I2393" t="n">
+        <v>1000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2393"/>
+  <dimension ref="A1:I2394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85427,6 +85427,43 @@
         <v>1000</v>
       </c>
     </row>
+    <row r="2394">
+      <c r="A2394" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2394" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2394" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D2394" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E2394" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F2394" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G2394" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H2394" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I2394" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2394"/>
+  <dimension ref="A1:I2395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85464,6 +85464,43 @@
         </is>
       </c>
     </row>
+    <row r="2395">
+      <c r="A2395" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2395" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2395" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D2395" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E2395" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="F2395" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="G2395" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="H2395" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="I2395" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2395"/>
+  <dimension ref="A1:I2396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85501,6 +85501,41 @@
         </is>
       </c>
     </row>
+    <row r="2396">
+      <c r="A2396" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2396" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2396" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D2396" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E2396" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="F2396" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G2396" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H2396" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I2396" t="n">
+        <v>3100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2396"/>
+  <dimension ref="A1:I2397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85536,6 +85536,43 @@
         <v>3100</v>
       </c>
     </row>
+    <row r="2397">
+      <c r="A2397" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2397" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2397" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D2397" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E2397" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F2397" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G2397" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H2397" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I2397" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/1058.xlsx
+++ b/data/1058.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2397"/>
+  <dimension ref="A1:I2398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85573,6 +85573,43 @@
         </is>
       </c>
     </row>
+    <row r="2398">
+      <c r="A2398" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2398" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2398" t="inlineStr">
+        <is>
+          <t>1058</t>
+        </is>
+      </c>
+      <c r="D2398" t="inlineStr">
+        <is>
+          <t>MANULFE</t>
+        </is>
+      </c>
+      <c r="E2398" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="F2398" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G2398" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H2398" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I2398" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
